--- a/logs/TrackingLandsat5ImageProcessing.xlsx
+++ b/logs/TrackingLandsat5ImageProcessing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garim\Documents\GitHub_LocalRepository\aquaculture_patterns\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B4A1AD-8412-49C7-8306-D1288209C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CDD12-89C2-47A7-9BD7-2FB98D5B2D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" xr2:uid="{A04548C0-05D6-4DBA-8655-AF15A25722A6}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="missingSatelliteData_Landsat8" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6690" uniqueCount="6225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="6226">
   <si>
     <t>UniqueID</t>
   </si>
@@ -18735,6 +18736,9 @@
   </si>
   <si>
     <t>Salinity</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -19321,7 +19325,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -19390,9 +19394,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -19788,8 +19789,8 @@
   <dimension ref="A1:J679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J541" sqref="J541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19818,17 +19819,17 @@
       <c r="D1" s="1" t="s">
         <v>6095</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>6215</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="20" t="s">
         <v>6222</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>6223</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>6224</v>
       </c>
     </row>
@@ -20175,7 +20176,7 @@
       </c>
       <c r="J27" s="20">
         <f>SUM(J28:J49)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -20223,6 +20224,9 @@
       <c r="H30" s="17">
         <v>1</v>
       </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -20235,6 +20239,9 @@
       <c r="H31" s="17">
         <v>1</v>
       </c>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
@@ -20252,8 +20259,11 @@
       <c r="H32" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F33" s="6">
         <v>1995</v>
       </c>
@@ -20263,8 +20273,11 @@
       <c r="H33" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F34" s="6">
         <v>1996</v>
       </c>
@@ -20274,8 +20287,11 @@
       <c r="H34" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F35" s="6">
         <v>1997</v>
       </c>
@@ -20285,8 +20301,11 @@
       <c r="H35" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>1998</v>
       </c>
@@ -20302,13 +20321,16 @@
       <c r="H36" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F37" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2000</v>
       </c>
@@ -20324,8 +20346,11 @@
       <c r="H38" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="6">
         <v>2001</v>
       </c>
@@ -20335,18 +20360,21 @@
       <c r="H39" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="6">
         <v>2004</v>
       </c>
@@ -20356,8 +20384,11 @@
       <c r="H42" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="6">
         <v>2005</v>
       </c>
@@ -20367,8 +20398,11 @@
       <c r="H43" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="6">
         <v>2006</v>
       </c>
@@ -20378,8 +20412,11 @@
       <c r="H44" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="6">
         <v>2007</v>
       </c>
@@ -20389,8 +20426,11 @@
       <c r="H45" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="6">
         <v>2008</v>
       </c>
@@ -20400,8 +20440,11 @@
       <c r="H46" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="6">
         <v>2009</v>
       </c>
@@ -20411,8 +20454,11 @@
       <c r="H47" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="6">
         <v>2010</v>
       </c>
@@ -20422,8 +20468,11 @@
       <c r="H48" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="6">
         <v>2011</v>
       </c>
@@ -20433,16 +20482,19 @@
       <c r="H49" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>6116</v>
       </c>
@@ -20454,8 +20506,12 @@
         <f>SUM(H53:H74)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="20">
+        <f>SUM(J53:J74)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>1990</v>
       </c>
@@ -20468,7 +20524,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="F54" s="6">
         <v>1991</v>
@@ -20479,8 +20535,11 @@
       <c r="H54" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>1992</v>
       </c>
@@ -20496,7 +20555,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F56" s="6">
         <v>1993</v>
       </c>
@@ -20506,8 +20565,11 @@
       <c r="H56" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1994</v>
       </c>
@@ -20523,8 +20585,11 @@
       <c r="H57" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F58" s="6">
         <v>1995</v>
       </c>
@@ -20534,8 +20599,11 @@
       <c r="H58" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>1996</v>
       </c>
@@ -20551,8 +20619,11 @@
       <c r="H59" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F60" s="6">
         <v>1997</v>
       </c>
@@ -20562,8 +20633,11 @@
       <c r="H60" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F61" s="6">
         <v>1998</v>
       </c>
@@ -20573,13 +20647,16 @@
       <c r="H61" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F62" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>2000</v>
       </c>
@@ -20598,8 +20675,11 @@
       <c r="H63" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F64" s="6">
         <v>2001</v>
       </c>
@@ -20609,18 +20689,21 @@
       <c r="H64" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F65" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F66" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F67" s="6">
         <v>2004</v>
       </c>
@@ -20630,8 +20713,11 @@
       <c r="H67" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F68" s="6">
         <v>2005</v>
       </c>
@@ -20641,8 +20727,11 @@
       <c r="H68" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F69" s="6">
         <v>2006</v>
       </c>
@@ -20652,8 +20741,11 @@
       <c r="H69" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F70" s="6">
         <v>2007</v>
       </c>
@@ -20663,8 +20755,11 @@
       <c r="H70" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F71" s="6">
         <v>2008</v>
       </c>
@@ -20674,8 +20769,11 @@
       <c r="H71" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F72" s="6">
         <v>2009</v>
       </c>
@@ -20685,8 +20783,11 @@
       <c r="H72" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F73" s="6">
         <v>2010</v>
       </c>
@@ -20696,8 +20797,11 @@
       <c r="H73" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>2011</v>
       </c>
@@ -20713,13 +20817,16 @@
       <c r="H74" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F75" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>6070</v>
       </c>
@@ -20731,8 +20838,12 @@
         <f>SUM(H78:H99)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="20">
+        <f>SUM(J78:J99)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>1990</v>
       </c>
@@ -20745,7 +20856,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="F79" s="6">
         <v>1991</v>
@@ -20756,8 +20867,11 @@
       <c r="H79" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J79" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>1992</v>
       </c>
@@ -20773,8 +20887,11 @@
       <c r="H80" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F81" s="6">
         <v>1993</v>
       </c>
@@ -20784,8 +20901,11 @@
       <c r="H81" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F82" s="6">
         <v>1994</v>
       </c>
@@ -20795,8 +20915,11 @@
       <c r="H82" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F83" s="6">
         <v>1995</v>
       </c>
@@ -20806,8 +20929,11 @@
       <c r="H83" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F84" s="6">
         <v>1996</v>
       </c>
@@ -20817,8 +20943,11 @@
       <c r="H84" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F85" s="6">
         <v>1997</v>
       </c>
@@ -20828,8 +20957,11 @@
       <c r="H85" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>1998</v>
       </c>
@@ -20842,13 +20974,13 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="F87" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>2000</v>
       </c>
@@ -20861,7 +20993,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F89" s="6">
         <v>2001</v>
       </c>
@@ -20871,18 +21003,21 @@
       <c r="H89" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J89" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F90" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F91" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F92" s="6">
         <v>2004</v>
       </c>
@@ -20892,8 +21027,11 @@
       <c r="H92" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J92" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F93" s="6">
         <v>2005</v>
       </c>
@@ -20903,8 +21041,11 @@
       <c r="H93" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J93" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F94" s="6">
         <v>2006</v>
       </c>
@@ -20914,8 +21055,11 @@
       <c r="H94" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J94" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F95" s="6">
         <v>2007</v>
       </c>
@@ -20925,8 +21069,11 @@
       <c r="H95" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J95" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F96" s="6">
         <v>2008</v>
       </c>
@@ -20936,8 +21083,11 @@
       <c r="H96" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J96" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>2009</v>
       </c>
@@ -20953,8 +21103,11 @@
       <c r="H97" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J97" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F98" s="6">
         <v>2010</v>
       </c>
@@ -20964,8 +21117,11 @@
       <c r="H98" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J98" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F99" s="6">
         <v>2011</v>
       </c>
@@ -20975,13 +21131,16 @@
       <c r="H99" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J99" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F100" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>6117</v>
       </c>
@@ -20993,8 +21152,12 @@
         <f>SUM(H103:H124)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J102" s="20">
+        <f>SUM(J103:J124)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>1990</v>
       </c>
@@ -21010,7 +21173,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F104" s="6">
         <v>1991</v>
       </c>
@@ -21020,8 +21183,11 @@
       <c r="H104" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J104" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F105" s="6">
         <v>1992</v>
       </c>
@@ -21031,8 +21197,11 @@
       <c r="H105" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J105" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F106" s="6">
         <v>1993</v>
       </c>
@@ -21042,8 +21211,11 @@
       <c r="H106" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J106" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>1994</v>
       </c>
@@ -21059,8 +21231,11 @@
       <c r="H107" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J107" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F108" s="6">
         <v>1995</v>
       </c>
@@ -21070,8 +21245,11 @@
       <c r="H108" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J108" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1996</v>
       </c>
@@ -21082,7 +21260,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F110" s="6">
         <v>1997</v>
       </c>
@@ -21092,8 +21270,11 @@
       <c r="H110" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J110" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
         <v>1998</v>
       </c>
@@ -21109,13 +21290,13 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="F112" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>2000</v>
       </c>
@@ -21128,7 +21309,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F114" s="6">
         <v>2001</v>
       </c>
@@ -21138,18 +21319,21 @@
       <c r="H114" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J114" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F115" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F116" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F117" s="6">
         <v>2004</v>
       </c>
@@ -21159,8 +21343,11 @@
       <c r="H117" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J117" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F118" s="6">
         <v>2005</v>
       </c>
@@ -21170,8 +21357,11 @@
       <c r="H118" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J118" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F119" s="6">
         <v>2006</v>
       </c>
@@ -21181,8 +21371,11 @@
       <c r="H119" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J119" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F120" s="6">
         <v>2007</v>
       </c>
@@ -21192,8 +21385,11 @@
       <c r="H120" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J120" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F121" s="6">
         <v>2008</v>
       </c>
@@ -21203,8 +21399,11 @@
       <c r="H121" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J121" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F122" s="6">
         <v>2009</v>
       </c>
@@ -21214,8 +21413,11 @@
       <c r="H122" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J122" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F123" s="6">
         <v>2010</v>
       </c>
@@ -21225,8 +21427,11 @@
       <c r="H123" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J123" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F124" s="6">
         <v>2011</v>
       </c>
@@ -21236,13 +21441,16 @@
       <c r="H124" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J124" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F125" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>6118</v>
       </c>
@@ -21254,8 +21462,12 @@
         <f>SUM(H128:H149)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J127" s="20">
+        <f>SUM(J128:J149)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F128" s="6">
         <v>1990</v>
       </c>
@@ -21265,8 +21477,11 @@
       <c r="H128" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J128" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F129" s="6">
         <v>1991</v>
       </c>
@@ -21276,8 +21491,11 @@
       <c r="H129" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J129" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>1992</v>
       </c>
@@ -21293,8 +21511,11 @@
       <c r="H130" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J130" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F131" s="6">
         <v>1993</v>
       </c>
@@ -21304,8 +21525,11 @@
       <c r="H131" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J131" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F132" s="6">
         <v>1994</v>
       </c>
@@ -21315,8 +21539,11 @@
       <c r="H132" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J132" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F133" s="6">
         <v>1995</v>
       </c>
@@ -21326,8 +21553,11 @@
       <c r="H133" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J133" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F134" s="6">
         <v>1996</v>
       </c>
@@ -21337,8 +21567,11 @@
       <c r="H134" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J134" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F135" s="6">
         <v>1997</v>
       </c>
@@ -21348,8 +21581,11 @@
       <c r="H135" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J135" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>1998</v>
       </c>
@@ -21360,12 +21596,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F137" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F138" s="6">
         <v>2000</v>
       </c>
@@ -21375,8 +21611,11 @@
       <c r="H138" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J138" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="4">
         <v>2001</v>
       </c>
@@ -21387,19 +21626,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="F140" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="F141" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="F142" s="6">
         <v>2004</v>
@@ -21410,8 +21649,11 @@
       <c r="H142" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J142" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="F143" s="6">
         <v>2005</v>
@@ -21422,8 +21664,11 @@
       <c r="H143" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J143" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="F144" s="6">
         <v>2006</v>
@@ -21434,8 +21679,11 @@
       <c r="H144" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J144" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="F145" s="6">
         <v>2007</v>
@@ -21446,8 +21694,11 @@
       <c r="H145" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J145" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="F146" s="6">
         <v>2008</v>
@@ -21458,8 +21709,11 @@
       <c r="H146" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J146" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="F147" s="6">
         <v>2009</v>
@@ -21470,8 +21724,11 @@
       <c r="H147" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J147" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="F148" s="6">
         <v>2010</v>
@@ -21482,8 +21739,11 @@
       <c r="H148" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J148" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="F149" s="6">
         <v>2011</v>
@@ -21494,27 +21754,34 @@
       <c r="H149" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J149" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="F150" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="22" t="s">
         <v>6080</v>
       </c>
       <c r="G152" s="22">
         <f>SUM(G153:G174)</f>
         <v>16</v>
       </c>
-      <c r="H152" s="24">
+      <c r="H152" s="22">
         <f>SUM(H153:H174)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J152" s="20">
+        <f>SUM(J153:J174)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F153" s="6">
         <v>1990</v>
       </c>
@@ -21524,56 +21791,95 @@
       <c r="H153" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J153" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F154" s="6">
         <v>1991</v>
       </c>
       <c r="G154" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="17">
+        <v>1</v>
+      </c>
+      <c r="J154" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F155" s="6">
         <v>1992</v>
       </c>
       <c r="G155" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="17">
+        <v>1</v>
+      </c>
+      <c r="J155" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F156" s="6">
         <v>1993</v>
       </c>
       <c r="G156" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="17">
+        <v>1</v>
+      </c>
+      <c r="J156" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F157" s="6">
         <v>1994</v>
       </c>
       <c r="G157" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="17">
+        <v>1</v>
+      </c>
+      <c r="J157" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F158" s="6">
         <v>1995</v>
       </c>
       <c r="G158" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="17">
+        <v>1</v>
+      </c>
+      <c r="J158" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F159" s="6">
         <v>1996</v>
       </c>
       <c r="G159" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="17">
+        <v>1</v>
+      </c>
+      <c r="J159" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="5">
         <v>1997</v>
       </c>
@@ -21586,8 +21892,14 @@
       <c r="G160" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="17">
+        <v>1</v>
+      </c>
+      <c r="J160" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="5">
         <v>1998</v>
       </c>
@@ -21598,12 +21910,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F162" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="4">
         <v>2000</v>
       </c>
@@ -21614,7 +21926,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="4">
         <v>2001</v>
       </c>
@@ -21625,19 +21937,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="F165" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="F166" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="F167" s="6">
         <v>2004</v>
@@ -21645,8 +21957,14 @@
       <c r="G167" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="17">
+        <v>1</v>
+      </c>
+      <c r="J167" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="F168" s="6">
         <v>2005</v>
@@ -21657,8 +21975,11 @@
       <c r="H168" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J168" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="F169" s="6">
         <v>2006</v>
@@ -21669,8 +21990,11 @@
       <c r="H169" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J169" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="F170" s="6">
         <v>2007</v>
@@ -21678,8 +22002,14 @@
       <c r="G170" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="17">
+        <v>1</v>
+      </c>
+      <c r="J170" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="F171" s="6">
         <v>2008</v>
@@ -21687,8 +22017,14 @@
       <c r="G171" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="17">
+        <v>1</v>
+      </c>
+      <c r="J171" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="F172" s="6">
         <v>2009</v>
@@ -21699,8 +22035,11 @@
       <c r="H172" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J172" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="F173" s="6">
         <v>2010</v>
@@ -21711,8 +22050,11 @@
       <c r="H173" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J173" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="F174" s="6">
         <v>2011</v>
@@ -21720,15 +22062,21 @@
       <c r="G174" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="17">
+        <v>1</v>
+      </c>
+      <c r="J174" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="F175" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="26" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
         <v>6085</v>
       </c>
       <c r="G177" s="22">
@@ -21739,8 +22087,12 @@
         <f>SUM(H178:H199)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J177" s="20">
+        <f>SUM(J178:J199)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="F178" s="6">
         <v>1990</v>
@@ -21751,8 +22103,11 @@
       <c r="H178" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J178" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="5">
         <v>1991</v>
       </c>
@@ -21768,8 +22123,11 @@
       <c r="H179" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J179" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="F180" s="6">
         <v>1992</v>
@@ -21780,8 +22138,11 @@
       <c r="H180" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J180" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="F181" s="6">
         <v>1993</v>
@@ -21792,8 +22153,11 @@
       <c r="H181" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J181" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="F182" s="6">
         <v>1994</v>
@@ -21804,8 +22168,11 @@
       <c r="H182" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J182" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="F183" s="6">
         <v>1995</v>
@@ -21816,8 +22183,11 @@
       <c r="H183" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J183" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="F184" s="6">
         <v>1996</v>
@@ -21828,8 +22198,11 @@
       <c r="H184" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J184" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" s="5">
         <v>1997</v>
       </c>
@@ -21845,8 +22218,11 @@
       <c r="H185" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J185" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" s="4">
         <v>1998</v>
       </c>
@@ -21857,13 +22233,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="F187" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="4">
         <v>2000</v>
       </c>
@@ -21874,7 +22250,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
       <c r="F189" s="6">
         <v>2001</v>
@@ -21885,20 +22261,23 @@
       <c r="H189" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J189" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
       <c r="F190" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
       <c r="F191" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="F192" s="6">
         <v>2004</v>
@@ -21909,8 +22288,11 @@
       <c r="H192" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J192" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="F193" s="6">
         <v>2005</v>
@@ -21921,8 +22303,11 @@
       <c r="H193" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J193" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="F194" s="6">
         <v>2006</v>
@@ -21933,8 +22318,11 @@
       <c r="H194" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J194" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
       <c r="F195" s="6">
         <v>2007</v>
@@ -21945,8 +22333,11 @@
       <c r="H195" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J195" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
       <c r="F196" s="6">
         <v>2008</v>
@@ -21957,8 +22348,11 @@
       <c r="H196" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J196" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
       <c r="F197" s="6">
         <v>2009</v>
@@ -21969,8 +22363,11 @@
       <c r="H197" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J197" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
       <c r="F198" s="6">
         <v>2010</v>
@@ -21981,8 +22378,11 @@
       <c r="H198" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J198" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
       <c r="F199" s="6">
         <v>2011</v>
@@ -21993,75 +22393,115 @@
       <c r="H199" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J199" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="F200" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="25" t="s">
         <v>6090</v>
       </c>
       <c r="B202" s="5"/>
-      <c r="G202" s="20">
+      <c r="G202" s="22">
         <f>SUM(G203:G224)</f>
-        <v>7</v>
-      </c>
-      <c r="H202" s="21">
+        <v>17</v>
+      </c>
+      <c r="H202" s="22">
         <f>SUM(H203:H224)</f>
+        <v>17</v>
+      </c>
+      <c r="J202" s="20">
+        <f>SUM(J203:J224)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F203" s="6">
         <v>1990</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="17">
+        <v>1</v>
+      </c>
+      <c r="H203" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F204" s="6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G204" s="17">
+        <v>1</v>
+      </c>
+      <c r="H204" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F205" s="6">
         <v>1992</v>
       </c>
       <c r="G205" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F206" s="6">
         <v>1993</v>
       </c>
       <c r="G206" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F207" s="6">
         <v>1994</v>
       </c>
       <c r="G207" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F208" s="6">
         <v>1995</v>
       </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="17">
+        <v>1</v>
+      </c>
+      <c r="H208" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F209" s="6">
         <v>1996</v>
       </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="17">
+        <v>1</v>
+      </c>
+      <c r="H209" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="5">
         <v>1997</v>
       </c>
@@ -22071,8 +22511,14 @@
       <c r="F210" s="6">
         <v>1997</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="17">
+        <v>1</v>
+      </c>
+      <c r="H210" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="4">
         <v>1998</v>
       </c>
@@ -22083,13 +22529,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="F212" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="4">
         <v>2000</v>
       </c>
@@ -22100,7 +22546,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="F214" s="6">
         <v>2001</v>
@@ -22108,38 +22554,59 @@
       <c r="G214" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="F215" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="F216" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="F217" s="6">
         <v>2004</v>
       </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="17">
+        <v>1</v>
+      </c>
+      <c r="H217" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="F218" s="6">
         <v>2005</v>
       </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="17">
+        <v>1</v>
+      </c>
+      <c r="H218" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="F219" s="6">
         <v>2006</v>
       </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="17">
+        <v>1</v>
+      </c>
+      <c r="H219" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="F220" s="6">
         <v>2007</v>
@@ -22147,8 +22614,11 @@
       <c r="G220" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="F221" s="6">
         <v>2008</v>
@@ -22156,14 +22626,23 @@
       <c r="G221" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="F222" s="6">
         <v>2009</v>
       </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="17">
+        <v>1</v>
+      </c>
+      <c r="H222" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="F223" s="6">
         <v>2010</v>
@@ -22171,37 +22650,50 @@
       <c r="G223" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="F224" s="6">
         <v>2011</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G224" s="17">
+        <v>1</v>
+      </c>
+      <c r="H224" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
       <c r="F225" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="22" t="s">
         <v>6098</v>
       </c>
       <c r="B227" s="5"/>
-      <c r="G227" s="20">
+      <c r="G227" s="22">
         <f>SUM(G229:G250)</f>
-        <v>14</v>
-      </c>
-      <c r="H227" s="21">
+        <v>16</v>
+      </c>
+      <c r="H227" s="22">
         <f>SUM(H229:H250)</f>
+        <v>16</v>
+      </c>
+      <c r="J227" s="20">
+        <f>SUM(J228:J249)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B228" s="5">
         <v>1990</v>
       </c>
@@ -22212,7 +22704,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="F229" s="6">
         <v>1991</v>
@@ -22220,8 +22712,11 @@
       <c r="G229" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H229" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="F230" s="6">
         <v>1992</v>
@@ -22229,8 +22724,11 @@
       <c r="G230" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H230" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="F231" s="6">
         <v>1993</v>
@@ -22238,15 +22736,23 @@
       <c r="G231" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
       <c r="F232" s="6">
         <v>1994</v>
       </c>
-      <c r="G232" s="23"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G232" s="17">
+        <v>1</v>
+      </c>
+      <c r="H232" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="F233" s="6">
         <v>1995</v>
@@ -22254,8 +22760,11 @@
       <c r="G233" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
       <c r="F234" s="6">
         <v>1996</v>
@@ -22263,8 +22772,11 @@
       <c r="G234" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B235" s="5">
         <v>1997</v>
       </c>
@@ -22274,9 +22786,14 @@
       <c r="F235" s="6">
         <v>1997</v>
       </c>
-      <c r="G235" s="23"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G235" s="17">
+        <v>1</v>
+      </c>
+      <c r="H235" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B236" s="4">
         <v>1998</v>
       </c>
@@ -22287,13 +22804,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
       <c r="F237" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B238" s="5">
         <v>2000</v>
       </c>
@@ -22304,7 +22821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B239" s="5">
         <v>2001</v>
       </c>
@@ -22317,20 +22834,23 @@
       <c r="G239" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="F240" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="F241" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B242" s="5">
         <v>2004</v>
       </c>
@@ -22343,8 +22863,11 @@
       <c r="G242" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="F243" s="6">
         <v>2005</v>
@@ -22352,8 +22875,11 @@
       <c r="G243" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="F244" s="6">
         <v>2006</v>
@@ -22361,8 +22887,11 @@
       <c r="G244" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="F245" s="6">
         <v>2007</v>
@@ -22370,8 +22899,11 @@
       <c r="G245" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="F246" s="6">
         <v>2008</v>
@@ -22379,8 +22911,11 @@
       <c r="G246" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="F247" s="6">
         <v>2009</v>
@@ -22388,8 +22923,11 @@
       <c r="G247" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="F248" s="6">
         <v>2010</v>
@@ -22397,8 +22935,11 @@
       <c r="G248" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="F249" s="6">
         <v>2011</v>
@@ -22406,18 +22947,21 @@
       <c r="G249" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
       <c r="F250" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="22" t="s">
         <v>6099</v>
       </c>
       <c r="B252" s="5"/>
@@ -22425,12 +22969,16 @@
         <f>SUM(G253:G274)</f>
         <v>14</v>
       </c>
-      <c r="H252" s="24">
+      <c r="H252" s="22">
         <f>SUM(H253:H274)</f>
+        <v>14</v>
+      </c>
+      <c r="J252" s="20">
+        <f>SUM(J253:J274)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B253" s="4">
         <v>1990</v>
       </c>
@@ -22441,7 +22989,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B254" s="5">
         <v>1991</v>
       </c>
@@ -22454,8 +23002,11 @@
       <c r="G254" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H254" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
       <c r="F255" s="6">
         <v>1992</v>
@@ -22463,8 +23014,11 @@
       <c r="G255" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H255" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
       <c r="F256" s="6">
         <v>1993</v>
@@ -22472,8 +23026,11 @@
       <c r="G256" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="5">
         <v>1994</v>
       </c>
@@ -22486,8 +23043,11 @@
       <c r="G257" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
       <c r="F258" s="6">
         <v>1995</v>
@@ -22495,8 +23055,11 @@
       <c r="G258" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
       <c r="F259" s="6">
         <v>1996</v>
@@ -22504,8 +23067,11 @@
       <c r="G259" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
       <c r="F260" s="6">
         <v>1997</v>
@@ -22513,8 +23079,11 @@
       <c r="G260" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="4">
         <v>1998</v>
       </c>
@@ -22525,13 +23094,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
       <c r="F262" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
       <c r="F263" s="6">
         <v>2000</v>
@@ -22539,8 +23108,11 @@
       <c r="G263" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="5">
         <v>2001</v>
       </c>
@@ -22551,19 +23123,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
       <c r="F265" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
       <c r="F266" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="F267" s="6">
         <v>2004</v>
@@ -22571,8 +23143,11 @@
       <c r="G267" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
       <c r="F268" s="6">
         <v>2005</v>
@@ -22580,8 +23155,11 @@
       <c r="G268" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="F269" s="6">
         <v>2006</v>
@@ -22589,8 +23167,11 @@
       <c r="G269" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="F270" s="6">
         <v>2007</v>
@@ -22598,8 +23179,11 @@
       <c r="G270" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="5">
         <v>2008</v>
       </c>
@@ -22610,7 +23194,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="F272" s="6">
         <v>2009</v>
@@ -22618,8 +23202,11 @@
       <c r="G272" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H272" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B273" s="5">
         <v>2010</v>
       </c>
@@ -22632,8 +23219,11 @@
       <c r="G273" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H273" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B274" s="5">
         <v>2011</v>
       </c>
@@ -22644,30 +23234,34 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
       <c r="F275" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="22" t="s">
         <v>6064</v>
       </c>
       <c r="B277" s="5"/>
-      <c r="G277" s="20">
+      <c r="G277" s="22">
         <f>SUM(G278:G299)</f>
-        <v>9</v>
-      </c>
-      <c r="H277" s="21">
+        <v>15</v>
+      </c>
+      <c r="H277" s="22">
         <f>SUM(H278:H299)</f>
+        <v>15</v>
+      </c>
+      <c r="J277" s="20">
+        <f>SUM(J278:J299)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B278" s="4">
         <v>1990</v>
       </c>
@@ -22678,7 +23272,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B279" s="4"/>
       <c r="F279" s="14">
         <v>1991</v>
@@ -22686,20 +23280,35 @@
       <c r="G279" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H279" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
       <c r="F280" s="14">
         <v>1992</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G280" s="17">
+        <v>1</v>
+      </c>
+      <c r="H280" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
       <c r="F281" s="14">
         <v>1993</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G281" s="17">
+        <v>1</v>
+      </c>
+      <c r="H281" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
         <v>1994</v>
       </c>
@@ -22715,29 +23324,44 @@
       <c r="G282" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H282" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F283" s="14">
         <v>1995</v>
       </c>
       <c r="G283" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H283" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F284" s="14">
         <v>1996</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G284" s="17">
+        <v>1</v>
+      </c>
+      <c r="H284" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F285" s="14">
         <v>1997</v>
       </c>
       <c r="G285" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H285" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B286" s="4">
         <v>1998</v>
       </c>
@@ -22748,13 +23372,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B287" s="4"/>
       <c r="F287" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B288" s="4">
         <v>2000</v>
       </c>
@@ -22770,8 +23394,11 @@
       <c r="G288" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H288" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B289" s="4">
         <v>2001</v>
       </c>
@@ -22782,19 +23409,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B290" s="4"/>
       <c r="F290" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B291" s="4"/>
       <c r="F291" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B292" s="4"/>
       <c r="F292" s="14">
         <v>2004</v>
@@ -22802,20 +23429,35 @@
       <c r="G292" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H292" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
       <c r="F293" s="14">
         <v>2005</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G293" s="17">
+        <v>1</v>
+      </c>
+      <c r="H293" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
       <c r="F294" s="14">
         <v>2006</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G294" s="17">
+        <v>1</v>
+      </c>
+      <c r="H294" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
       <c r="F295" s="14">
         <v>2007</v>
@@ -22823,8 +23465,11 @@
       <c r="G295" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
       <c r="F296" s="14">
         <v>2008</v>
@@ -22832,14 +23477,23 @@
       <c r="G296" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H296" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
       <c r="F297" s="14">
         <v>2009</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G297" s="17">
+        <v>1</v>
+      </c>
+      <c r="H297" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
       <c r="F298" s="14">
         <v>2010</v>
@@ -22847,8 +23501,11 @@
       <c r="G298" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H298" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
         <v>2011</v>
       </c>
@@ -22859,29 +23516,33 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F300" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="24" t="s">
         <v>6100</v>
       </c>
       <c r="B303" s="5"/>
-      <c r="G303" s="25">
+      <c r="G303" s="24">
         <f>SUM(G304:G325)</f>
         <v>14</v>
       </c>
       <c r="H303" s="24">
         <f>SUM(H304:H325)</f>
+        <v>14</v>
+      </c>
+      <c r="J303" s="20">
+        <f>SUM(J304:J325)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B304" s="4">
         <v>1990</v>
       </c>
@@ -22892,7 +23553,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="5">
         <v>1991</v>
       </c>
@@ -22905,8 +23566,11 @@
       <c r="G305" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
       <c r="F306" s="6">
         <v>1992</v>
@@ -22914,8 +23578,11 @@
       <c r="G306" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="F307" s="6">
         <v>1993</v>
@@ -22923,8 +23590,11 @@
       <c r="G307" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="4">
         <v>1994</v>
       </c>
@@ -22935,7 +23605,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
       <c r="F309" s="6">
         <v>1995</v>
@@ -22943,8 +23613,11 @@
       <c r="G309" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="5">
         <v>1996</v>
       </c>
@@ -22957,8 +23630,11 @@
       <c r="G310" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="F311" s="6">
         <v>1997</v>
@@ -22966,8 +23642,11 @@
       <c r="G311" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="4">
         <v>1998</v>
       </c>
@@ -22978,13 +23657,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
       <c r="F313" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="4">
         <v>2000</v>
       </c>
@@ -22995,7 +23674,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="4">
         <v>2001</v>
       </c>
@@ -23006,19 +23685,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
       <c r="F316" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
       <c r="F317" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
       <c r="F318" s="6">
         <v>2004</v>
@@ -23026,8 +23705,11 @@
       <c r="G318" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
       <c r="F319" s="6">
         <v>2005</v>
@@ -23035,8 +23717,11 @@
       <c r="G319" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
       <c r="F320" s="6">
         <v>2006</v>
@@ -23044,8 +23729,11 @@
       <c r="G320" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H320" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B321" s="4"/>
       <c r="F321" s="6">
         <v>2007</v>
@@ -23053,8 +23741,11 @@
       <c r="G321" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H321" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
       <c r="F322" s="6">
         <v>2008</v>
@@ -23062,8 +23753,11 @@
       <c r="G322" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H322" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
       <c r="F323" s="6">
         <v>2009</v>
@@ -23071,8 +23765,11 @@
       <c r="G323" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H323" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
       <c r="F324" s="6">
         <v>2010</v>
@@ -23080,8 +23777,11 @@
       <c r="G324" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H324" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
       <c r="F325" s="6">
         <v>2011</v>
@@ -23089,8 +23789,11 @@
       <c r="G325" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H325" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B326" s="5">
         <v>2011</v>
       </c>
@@ -23101,27 +23804,31 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="24" t="s">
         <v>6101</v>
       </c>
       <c r="B329" s="5"/>
-      <c r="G329" s="20">
+      <c r="G329" s="24">
         <f>SUM(G330:G351)</f>
-        <v>6</v>
-      </c>
-      <c r="H329" s="21">
+        <v>17</v>
+      </c>
+      <c r="H329" s="24">
         <f>SUM(H330:H351)</f>
+        <v>17</v>
+      </c>
+      <c r="J329" s="20">
+        <f>SUM(J330:J351)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B330" s="5">
         <v>1990</v>
       </c>
@@ -23137,26 +23844,47 @@
       <c r="G330" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H330" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B331" s="5"/>
       <c r="F331" s="6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="H331" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
       <c r="F332" s="6">
         <v>1992</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="H332" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
       <c r="F333" s="6">
         <v>1993</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G333" s="17">
+        <v>1</v>
+      </c>
+      <c r="H333" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
       <c r="F334" s="6">
         <v>1994</v>
@@ -23164,14 +23892,23 @@
       <c r="G334" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H334" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
       <c r="F335" s="6">
         <v>1995</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G335" s="17">
+        <v>1</v>
+      </c>
+      <c r="H335" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B336" s="5">
         <v>1996</v>
       </c>
@@ -23181,8 +23918,14 @@
       <c r="F336" s="6">
         <v>1996</v>
       </c>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G336" s="17">
+        <v>1</v>
+      </c>
+      <c r="H336" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
       <c r="F337" s="6">
         <v>1997</v>
@@ -23190,8 +23933,11 @@
       <c r="G337" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="4">
         <v>1998</v>
       </c>
@@ -23202,13 +23948,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
       <c r="F339" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="4">
         <v>2000</v>
       </c>
@@ -23219,7 +23965,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="5">
         <v>2001</v>
       </c>
@@ -23232,20 +23978,26 @@
       <c r="F341" s="6">
         <v>2001</v>
       </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G341" s="17">
+        <v>1</v>
+      </c>
+      <c r="H341" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
       <c r="F342" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
       <c r="F343" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
       <c r="F344" s="6">
         <v>2004</v>
@@ -23253,14 +24005,23 @@
       <c r="G344" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="F345" s="6">
         <v>2005</v>
       </c>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G345" s="17">
+        <v>1</v>
+      </c>
+      <c r="H345" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="5">
         <v>2006</v>
       </c>
@@ -23270,8 +24031,14 @@
       <c r="F346" s="6">
         <v>2006</v>
       </c>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G346" s="17">
+        <v>1</v>
+      </c>
+      <c r="H346" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="F347" s="6">
         <v>2007</v>
@@ -23279,8 +24046,11 @@
       <c r="G347" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="5">
         <v>2008</v>
       </c>
@@ -23290,8 +24060,14 @@
       <c r="F348" s="6">
         <v>2008</v>
       </c>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G348" s="17">
+        <v>1</v>
+      </c>
+      <c r="H348" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="5">
         <v>2009</v>
       </c>
@@ -23304,43 +24080,62 @@
       <c r="G349" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="F350" s="6">
         <v>2010</v>
       </c>
-    </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G350" s="17">
+        <v>1</v>
+      </c>
+      <c r="H350" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
       <c r="F351" s="6">
         <v>2011</v>
       </c>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G351" s="17">
+        <v>1</v>
+      </c>
+      <c r="H351" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="F352" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="3" t="s">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="24" t="s">
         <v>6102</v>
       </c>
       <c r="B354" s="5"/>
-      <c r="G354" s="20">
+      <c r="G354" s="24">
         <f>SUM(G355:G376)</f>
-        <v>9</v>
-      </c>
-      <c r="H354" s="21">
+        <v>16</v>
+      </c>
+      <c r="H354" s="24">
         <f>SUM(H355:H376)</f>
+        <v>16</v>
+      </c>
+      <c r="J354" s="20">
+        <f>SUM(J355:J376)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B355" s="5">
         <v>1990</v>
       </c>
@@ -23353,8 +24148,14 @@
       <c r="F355" s="6">
         <v>1990</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G355" s="17">
+        <v>1</v>
+      </c>
+      <c r="H355" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B356" s="5">
         <v>1991</v>
       </c>
@@ -23364,8 +24165,14 @@
       <c r="F356" s="6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G356" s="17">
+        <v>1</v>
+      </c>
+      <c r="H356" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
       <c r="F357" s="6">
         <v>1992</v>
@@ -23373,14 +24180,23 @@
       <c r="G357" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H357" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
       <c r="F358" s="6">
         <v>1993</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G358" s="17">
+        <v>1</v>
+      </c>
+      <c r="H358" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
       <c r="F359" s="6">
         <v>1994</v>
@@ -23388,14 +24204,23 @@
       <c r="G359" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H359" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
       <c r="F360" s="6">
         <v>1995</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G360" s="17">
+        <v>1</v>
+      </c>
+      <c r="H360" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
       <c r="F361" s="6">
         <v>1996</v>
@@ -23403,8 +24228,11 @@
       <c r="G361" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H361" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
       <c r="F362" s="6">
         <v>1997</v>
@@ -23412,8 +24240,11 @@
       <c r="G362" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H362" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B363" s="4">
         <v>1998</v>
       </c>
@@ -23424,13 +24255,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B364" s="4"/>
       <c r="F364" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B365" s="4">
         <v>2000</v>
       </c>
@@ -23441,7 +24272,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B366" s="4">
         <v>2001</v>
       </c>
@@ -23452,13 +24283,13 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B367" s="4"/>
       <c r="F367" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B368" s="4"/>
       <c r="F368" s="7">
         <v>2003</v>
@@ -23472,12 +24303,21 @@
       <c r="G369" s="17">
         <v>1</v>
       </c>
+      <c r="H369" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B370" s="4"/>
       <c r="F370" s="6">
         <v>2005</v>
       </c>
+      <c r="G370" s="17">
+        <v>1</v>
+      </c>
+      <c r="H370" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B371" s="5">
@@ -23488,6 +24328,12 @@
       </c>
       <c r="F371" s="6">
         <v>2006</v>
+      </c>
+      <c r="G371" s="17">
+        <v>1</v>
+      </c>
+      <c r="H371" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -23498,6 +24344,9 @@
       <c r="G372" s="17">
         <v>1</v>
       </c>
+      <c r="H372" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B373" s="5">
@@ -23508,6 +24357,12 @@
       </c>
       <c r="F373" s="6">
         <v>2008</v>
+      </c>
+      <c r="G373" s="17">
+        <v>1</v>
+      </c>
+      <c r="H373" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -23518,6 +24373,9 @@
       <c r="G374" s="17">
         <v>1</v>
       </c>
+      <c r="H374" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B375" s="5">
@@ -23533,6 +24391,9 @@
         <v>2010</v>
       </c>
       <c r="G375" s="17">
+        <v>1</v>
+      </c>
+      <c r="H375" s="17">
         <v>1</v>
       </c>
     </row>
@@ -23544,6 +24405,9 @@
       <c r="G376" s="17">
         <v>1</v>
       </c>
+      <c r="H376" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B377" s="5"/>
@@ -23567,7 +24431,7 @@
       <c r="J380" s="18"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="26" t="s">
+      <c r="A381" s="25" t="s">
         <v>6103</v>
       </c>
       <c r="B381" s="5"/>
@@ -23579,6 +24443,10 @@
         <f>SUM(H382:H403)</f>
         <v>16</v>
       </c>
+      <c r="J381" s="20">
+        <f>SUM(J382:J403)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B382" s="3">
@@ -23599,6 +24467,9 @@
       <c r="H382" s="17">
         <v>1</v>
       </c>
+      <c r="J382" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B383" s="3">
@@ -23616,6 +24487,9 @@
       <c r="H383" s="17">
         <v>1</v>
       </c>
+      <c r="J383" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F384" s="10">
@@ -23627,8 +24501,11 @@
       <c r="H384" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J384" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F385" s="10">
         <v>1993</v>
       </c>
@@ -23638,8 +24515,11 @@
       <c r="H385" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J385" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B386" s="3">
         <v>1994</v>
       </c>
@@ -23655,8 +24535,11 @@
       <c r="H386" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J386" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F387" s="10">
         <v>1995</v>
       </c>
@@ -23666,8 +24549,11 @@
       <c r="H387" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J387" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F388" s="10">
         <v>1996</v>
       </c>
@@ -23677,8 +24563,11 @@
       <c r="H388" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J388" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F389" s="10">
         <v>1997</v>
       </c>
@@ -23688,8 +24577,11 @@
       <c r="H389" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J389" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B390" s="3">
         <v>1998</v>
       </c>
@@ -23703,12 +24595,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F391" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B392" s="4">
         <v>2000</v>
       </c>
@@ -23722,7 +24614,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B393" s="4">
         <v>2001</v>
       </c>
@@ -23739,19 +24631,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B394" s="4"/>
       <c r="F394" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B395" s="4"/>
       <c r="F395" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B396" s="4"/>
       <c r="F396" s="10">
         <v>2004</v>
@@ -23762,8 +24654,11 @@
       <c r="H396" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J396" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
       <c r="F397" s="10">
         <v>2005</v>
@@ -23774,8 +24669,11 @@
       <c r="H397" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J397" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B398" s="3">
         <v>2006</v>
       </c>
@@ -23791,8 +24689,11 @@
       <c r="H398" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J398" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F399" s="10">
         <v>2007</v>
       </c>
@@ -23802,8 +24703,11 @@
       <c r="H399" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J399" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B400" s="3">
         <v>2008</v>
       </c>
@@ -23819,8 +24723,11 @@
       <c r="H400" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J400" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F401" s="10">
         <v>2009</v>
       </c>
@@ -23830,8 +24737,11 @@
       <c r="H401" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J401" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B402" s="3">
         <v>2010</v>
       </c>
@@ -23847,8 +24757,11 @@
       <c r="H402" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J402" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F403" s="10">
         <v>2011</v>
       </c>
@@ -23858,8 +24771,11 @@
       <c r="H403" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J403" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E404" s="3" t="s">
         <v>6204</v>
       </c>
@@ -23867,9 +24783,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="26" t="s">
+    <row r="405" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="25" t="s">
         <v>6104</v>
       </c>
       <c r="G406" s="22">
@@ -23880,8 +24796,12 @@
         <f>SUM(H407:H428)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J406" s="20">
+        <f>SUM(J407:J428)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B407" s="3">
         <v>1990</v>
       </c>
@@ -23897,8 +24817,11 @@
       <c r="H407" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J407" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F408" s="10">
         <v>1991</v>
       </c>
@@ -23908,8 +24831,11 @@
       <c r="H408" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J408" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F409" s="10">
         <v>1992</v>
       </c>
@@ -23919,8 +24845,11 @@
       <c r="H409" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J409" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F410" s="10">
         <v>1993</v>
       </c>
@@ -23930,8 +24859,11 @@
       <c r="H410" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J410" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B411" s="3">
         <v>1994</v>
       </c>
@@ -23947,8 +24879,11 @@
       <c r="H411" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J411" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F412" s="10">
         <v>1995</v>
       </c>
@@ -23958,8 +24893,11 @@
       <c r="H412" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J412" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F413" s="10">
         <v>1996</v>
       </c>
@@ -23969,8 +24907,11 @@
       <c r="H413" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J413" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F414" s="10">
         <v>1997</v>
       </c>
@@ -23980,8 +24921,11 @@
       <c r="H414" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J414" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B415" s="3">
         <v>1998</v>
       </c>
@@ -23992,12 +24936,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F416" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B417" s="4">
         <v>2000</v>
       </c>
@@ -24011,7 +24955,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B418" s="4">
         <v>2001</v>
       </c>
@@ -24028,19 +24972,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
       <c r="F419" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
       <c r="F420" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
       <c r="F421" s="10">
         <v>2004</v>
@@ -24051,8 +24995,11 @@
       <c r="H421" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J421" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
       <c r="F422" s="10">
         <v>2005</v>
@@ -24063,8 +25010,11 @@
       <c r="H422" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J422" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
       <c r="F423" s="10">
         <v>2006</v>
@@ -24075,8 +25025,11 @@
       <c r="H423" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J423" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
       <c r="F424" s="10">
         <v>2007</v>
@@ -24087,8 +25040,11 @@
       <c r="H424" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J424" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B425" s="3">
         <v>2008</v>
       </c>
@@ -24104,8 +25060,11 @@
       <c r="H425" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J425" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F426" s="10">
         <v>2009</v>
       </c>
@@ -24115,8 +25074,11 @@
       <c r="H426" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J426" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B427" s="3">
         <v>2010</v>
       </c>
@@ -24132,8 +25094,11 @@
       <c r="H427" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J427" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F428" s="10">
         <v>2011</v>
       </c>
@@ -24143,13 +25108,16 @@
       <c r="H428" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J428" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F429" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="22" t="s">
         <v>6105</v>
       </c>
@@ -24161,8 +25129,12 @@
         <f>SUM(H432:H453)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J431" s="20">
+        <f>SUM(J432:J453)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B432" s="3">
         <v>1990</v>
       </c>
@@ -24178,8 +25150,11 @@
       <c r="H432" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J432" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F433" s="10">
         <v>1991</v>
       </c>
@@ -24189,8 +25164,11 @@
       <c r="H433" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J433" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F434" s="10">
         <v>1992</v>
       </c>
@@ -24200,8 +25178,11 @@
       <c r="H434" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J434" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F435" s="10">
         <v>1993</v>
       </c>
@@ -24211,8 +25192,11 @@
       <c r="H435" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J435" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B436" s="3">
         <v>1994</v>
       </c>
@@ -24231,8 +25215,11 @@
       <c r="H436" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J436" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F437" s="10">
         <v>1995</v>
       </c>
@@ -24242,8 +25229,11 @@
       <c r="H437" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J437" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F438" s="10">
         <v>1996</v>
       </c>
@@ -24253,8 +25243,11 @@
       <c r="H438" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J438" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F439" s="10">
         <v>1997</v>
       </c>
@@ -24264,8 +25257,11 @@
       <c r="H439" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J439" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B440" s="4">
         <v>1998</v>
       </c>
@@ -24282,14 +25278,14 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
       <c r="D441" s="4"/>
       <c r="F441" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B442" s="4">
         <v>2000</v>
       </c>
@@ -24306,7 +25302,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B443" s="3">
         <v>2001</v>
       </c>
@@ -24325,18 +25321,21 @@
       <c r="H443" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J443" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F444" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F445" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F446" s="10">
         <v>2004</v>
       </c>
@@ -24346,8 +25345,11 @@
       <c r="H446" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J446" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F447" s="10">
         <v>2005</v>
       </c>
@@ -24357,8 +25359,11 @@
       <c r="H447" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J447" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F448" s="10">
         <v>2006</v>
       </c>
@@ -24368,8 +25373,11 @@
       <c r="H448" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J448" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F449" s="10">
         <v>2007</v>
       </c>
@@ -24379,8 +25387,11 @@
       <c r="H449" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J449" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F450" s="10">
         <v>2008</v>
       </c>
@@ -24390,8 +25401,11 @@
       <c r="H450" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J450" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F451" s="10">
         <v>2009</v>
       </c>
@@ -24401,8 +25415,11 @@
       <c r="H451" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J451" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B452" s="3">
         <v>2010</v>
       </c>
@@ -24418,8 +25435,11 @@
       <c r="H452" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J452" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B453" s="3">
         <v>2011</v>
       </c>
@@ -24435,14 +25455,17 @@
       <c r="H453" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J453" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F454" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="26" t="s">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="25" t="s">
         <v>6106</v>
       </c>
       <c r="G456" s="22">
@@ -24453,8 +25476,12 @@
         <f>SUM(H457:H478)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J456" s="20">
+        <f>SUM(J457:J478)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B457" s="3">
         <v>1990</v>
       </c>
@@ -24468,7 +25495,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F458" s="10">
         <v>1991</v>
       </c>
@@ -24478,8 +25505,11 @@
       <c r="H458" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J458" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F459" s="10">
         <v>1992</v>
       </c>
@@ -24489,8 +25519,11 @@
       <c r="H459" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J459" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B460" s="3">
         <v>1993</v>
       </c>
@@ -24506,8 +25539,11 @@
       <c r="H460" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J460" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B461" s="4">
         <v>1994</v>
       </c>
@@ -24526,8 +25562,11 @@
       <c r="H461" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J461" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
       <c r="F462" s="10">
         <v>1995</v>
@@ -24538,8 +25577,11 @@
       <c r="H462" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J462" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
       <c r="F463" s="10">
         <v>1996</v>
@@ -24550,8 +25592,11 @@
       <c r="H463" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J463" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B464" s="4"/>
       <c r="F464" s="10">
         <v>1997</v>
@@ -24562,8 +25607,11 @@
       <c r="H464" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J464" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B465" s="4"/>
       <c r="E465" s="3" t="s">
         <v>6210</v>
@@ -24572,13 +25620,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
       <c r="F466" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B467" s="5">
         <v>2000</v>
       </c>
@@ -24592,7 +25640,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B468" s="5">
         <v>2001</v>
       </c>
@@ -24608,20 +25656,23 @@
       <c r="H468" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J468" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B469" s="5"/>
       <c r="F469" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B470" s="5"/>
       <c r="F470" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B471" s="5"/>
       <c r="F471" s="10">
         <v>2004</v>
@@ -24632,8 +25683,11 @@
       <c r="H471" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J471" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B472" s="5"/>
       <c r="F472" s="10">
         <v>2005</v>
@@ -24644,8 +25698,11 @@
       <c r="H472" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J472" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B473" s="5"/>
       <c r="F473" s="10">
         <v>2006</v>
@@ -24656,8 +25713,11 @@
       <c r="H473" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J473" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B474" s="5">
         <v>2007</v>
       </c>
@@ -24673,8 +25733,11 @@
       <c r="H474" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J474" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B475" s="5">
         <v>2008</v>
       </c>
@@ -24690,8 +25753,11 @@
       <c r="H475" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J475" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B476" s="5"/>
       <c r="F476" s="10">
         <v>2009</v>
@@ -24702,8 +25768,11 @@
       <c r="H476" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J476" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B477" s="5">
         <v>2010</v>
       </c>
@@ -24719,8 +25788,11 @@
       <c r="H477" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J477" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B478" s="5"/>
       <c r="F478" s="10">
         <v>2011</v>
@@ -24731,15 +25803,18 @@
       <c r="H478" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J478" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B479" s="5"/>
       <c r="F479" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="26" t="s">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="25" t="s">
         <v>6074</v>
       </c>
       <c r="G481" s="22">
@@ -24750,8 +25825,12 @@
         <f>SUM(H482:H503)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J481" s="20">
+        <f>SUM(J482:J503)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B482" s="4">
         <v>1990</v>
       </c>
@@ -24768,7 +25847,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B483" s="4">
         <v>1991</v>
       </c>
@@ -24785,7 +25864,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B484" s="3">
         <v>1992</v>
       </c>
@@ -24801,8 +25880,11 @@
       <c r="H484" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J484" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B485" s="4">
         <v>1993</v>
       </c>
@@ -24816,7 +25898,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B486" s="4">
         <v>1994</v>
       </c>
@@ -24830,7 +25912,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B487" s="4"/>
       <c r="F487" s="10">
         <v>1995</v>
@@ -24841,8 +25923,11 @@
       <c r="H487" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J487" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B488" s="4"/>
       <c r="F488" s="10">
         <v>1996</v>
@@ -24853,8 +25938,11 @@
       <c r="H488" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J488" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B489" s="4"/>
       <c r="F489" s="10">
         <v>1997</v>
@@ -24865,8 +25953,11 @@
       <c r="H489" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J489" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B490" s="4">
         <v>1998</v>
       </c>
@@ -24877,13 +25968,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B491" s="4"/>
       <c r="F491" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B492" s="4">
         <v>2000</v>
       </c>
@@ -24897,7 +25988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B493" s="4">
         <v>2001</v>
       </c>
@@ -24911,19 +26002,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B494" s="4"/>
       <c r="F494" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B495" s="4"/>
       <c r="F495" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B496" s="4"/>
       <c r="F496" s="14">
         <v>2004</v>
@@ -24934,8 +26025,11 @@
       <c r="H496" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J496" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B497" s="4"/>
       <c r="F497" s="14">
         <v>2005</v>
@@ -24946,8 +26040,11 @@
       <c r="H497" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J497" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B498" s="4"/>
       <c r="F498" s="14">
         <v>2006</v>
@@ -24958,8 +26055,11 @@
       <c r="H498" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J498" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B499" s="4"/>
       <c r="F499" s="14">
         <v>2007</v>
@@ -24970,8 +26070,11 @@
       <c r="H499" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J499" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B500" s="4">
         <v>2008</v>
       </c>
@@ -24987,8 +26090,11 @@
       <c r="H500" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J500" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B501" s="4"/>
       <c r="F501" s="14">
         <v>2009</v>
@@ -24999,8 +26105,11 @@
       <c r="H501" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J501" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B502" s="4"/>
       <c r="F502" s="14">
         <v>2010</v>
@@ -25011,8 +26120,11 @@
       <c r="H502" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J502" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B503" s="4"/>
       <c r="F503" s="14">
         <v>2011</v>
@@ -25023,14 +26135,17 @@
       <c r="H503" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J503" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B504" s="4"/>
       <c r="F504" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="22" t="s">
         <v>6107</v>
       </c>
@@ -25042,8 +26157,12 @@
         <f>SUM(H507:H528)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J506" s="20">
+        <f>SUM(J507:J528)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B507" s="4">
         <v>1990</v>
       </c>
@@ -25060,7 +26179,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B508" s="4">
         <v>1991</v>
       </c>
@@ -25077,7 +26196,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="5"/>
       <c r="B509" s="5">
         <v>1992</v>
@@ -25094,8 +26213,11 @@
       <c r="H509" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J509" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="5"/>
       <c r="B510" s="4">
         <v>1993</v>
@@ -25107,7 +26229,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
       <c r="B511" s="4">
         <v>1994</v>
@@ -25119,7 +26241,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="4"/>
       <c r="F512" s="10">
@@ -25131,8 +26253,11 @@
       <c r="H512" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J512" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="5"/>
       <c r="B513" s="4"/>
       <c r="F513" s="10">
@@ -25144,8 +26269,11 @@
       <c r="H513" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J513" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="5"/>
       <c r="B514" s="4"/>
       <c r="F514" s="10">
@@ -25157,8 +26285,11 @@
       <c r="H514" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J514" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="5"/>
       <c r="B515" s="5">
         <v>1998</v>
@@ -25170,14 +26301,14 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="F516" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="5"/>
       <c r="B517" s="4">
         <v>2000</v>
@@ -25189,7 +26320,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="5"/>
       <c r="B518" s="4">
         <v>2001</v>
@@ -25201,21 +26332,21 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="5"/>
       <c r="B519" s="4"/>
       <c r="F519" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="5"/>
       <c r="B520" s="4"/>
       <c r="F520" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="5"/>
       <c r="B521" s="4"/>
       <c r="F521" s="10">
@@ -25227,8 +26358,11 @@
       <c r="H521" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J521" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="5"/>
       <c r="B522" s="4"/>
       <c r="F522" s="10">
@@ -25240,8 +26374,11 @@
       <c r="H522" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J522" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="5"/>
       <c r="B523" s="4"/>
       <c r="F523" s="10">
@@ -25253,8 +26390,11 @@
       <c r="H523" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J523" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="5"/>
       <c r="B524" s="4"/>
       <c r="F524" s="10">
@@ -25266,8 +26406,11 @@
       <c r="H524" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J524" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="5"/>
       <c r="B525" s="4">
         <v>2008</v>
@@ -25284,8 +26427,11 @@
       <c r="H525" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J525" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="5"/>
       <c r="B526" s="5">
         <v>2009</v>
@@ -25302,8 +26448,11 @@
       <c r="H526" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J526" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="5"/>
       <c r="B527" s="5">
         <v>2010</v>
@@ -25320,8 +26469,11 @@
       <c r="H527" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J527" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="F528" s="10">
@@ -25333,20 +26485,23 @@
       <c r="H528" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J528" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="F529" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531" s="27" t="s">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="26" t="s">
         <v>6108</v>
       </c>
       <c r="B531" s="5"/>
@@ -25358,8 +26513,12 @@
         <f>SUM(H532:H553)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J531" s="20">
+        <f>SUM(J532:J553)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B532" s="4">
         <v>1990</v>
       </c>
@@ -25376,7 +26535,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="5"/>
       <c r="B533" s="4">
         <v>1991</v>
@@ -25394,7 +26553,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="5"/>
       <c r="B534" s="4">
         <v>1992</v>
@@ -25411,8 +26570,11 @@
       <c r="H534" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J534" s="23" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="4">
         <v>1993</v>
@@ -25430,7 +26592,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="5"/>
       <c r="B536" s="4">
         <v>1994</v>
@@ -25448,7 +26610,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="5"/>
       <c r="B537" s="5">
         <v>1995</v>
@@ -25468,8 +26630,11 @@
       <c r="H537" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J537" s="23" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="F538" s="10">
@@ -25481,8 +26646,11 @@
       <c r="H538" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J538" s="23" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="F539" s="10">
@@ -25494,8 +26662,11 @@
       <c r="H539" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J539" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="5"/>
       <c r="B540" s="5">
         <v>1998</v>
@@ -25510,14 +26681,14 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="F541" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="5"/>
       <c r="B542" s="4">
         <v>2000</v>
@@ -25532,7 +26703,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="5"/>
       <c r="B543" s="4">
         <v>2001</v>
@@ -25547,21 +26718,21 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
       <c r="B544" s="4"/>
       <c r="F544" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="5"/>
       <c r="B545" s="4"/>
       <c r="F545" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="5"/>
       <c r="B546" s="4"/>
       <c r="F546" s="10">
@@ -25573,8 +26744,11 @@
       <c r="H546" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J546" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
       <c r="B547" s="4"/>
       <c r="F547" s="10">
@@ -25586,8 +26760,11 @@
       <c r="H547" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J547" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="5"/>
       <c r="B548" s="4"/>
       <c r="F548" s="10">
@@ -25599,8 +26776,11 @@
       <c r="H548" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J548" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="5"/>
       <c r="B549" s="4"/>
       <c r="F549" s="10">
@@ -25612,8 +26792,11 @@
       <c r="H549" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J549" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
       <c r="B550" s="4">
         <v>2008</v>
@@ -25630,8 +26813,11 @@
       <c r="H550" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J550" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="5"/>
       <c r="B551" s="4"/>
       <c r="F551" s="10">
@@ -25643,8 +26829,11 @@
       <c r="H551" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J551" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="5"/>
       <c r="B552" s="4"/>
       <c r="F552" s="10">
@@ -25656,8 +26845,11 @@
       <c r="H552" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J552" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
       <c r="B553" s="4"/>
       <c r="F553" s="10">
@@ -25669,8 +26861,11 @@
       <c r="H553" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J553" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="5"/>
       <c r="B554" s="4"/>
       <c r="E554" s="3" t="s">
@@ -25680,12 +26875,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A556" s="27" t="s">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" s="26" t="s">
         <v>6109</v>
       </c>
       <c r="B556" s="5"/>
@@ -25697,8 +26892,12 @@
         <f>SUM(H557:H578)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J556" s="20">
+        <f>SUM(J557:J578)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B557" s="4">
         <v>1990</v>
       </c>
@@ -25715,7 +26914,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="5"/>
       <c r="B558" s="4">
         <v>1991</v>
@@ -25730,7 +26929,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
       <c r="B559" s="4">
         <v>1992</v>
@@ -25745,7 +26944,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="5"/>
       <c r="B560" s="4">
         <v>1993</v>
@@ -25760,7 +26959,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="5"/>
       <c r="B561" s="4">
         <v>1994</v>
@@ -25775,7 +26974,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="5"/>
       <c r="B562" s="4">
         <v>1995</v>
@@ -25790,7 +26989,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="5"/>
       <c r="B563" s="4">
         <v>1996</v>
@@ -25805,7 +27004,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="5"/>
       <c r="B564" s="4"/>
       <c r="F564" s="10">
@@ -25817,8 +27016,11 @@
       <c r="H564" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J564" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="5"/>
       <c r="B565" s="4">
         <v>1998</v>
@@ -25833,21 +27035,21 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="5"/>
       <c r="B566" s="4"/>
       <c r="F566" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="5"/>
       <c r="B567" s="4"/>
       <c r="F567" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="5"/>
       <c r="B568" s="4">
         <v>2001</v>
@@ -25862,21 +27064,21 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="5"/>
       <c r="B569" s="4"/>
       <c r="F569" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="5"/>
       <c r="B570" s="4"/>
       <c r="F570" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="5"/>
       <c r="B571" s="4"/>
       <c r="F571" s="10">
@@ -25888,8 +27090,11 @@
       <c r="H571" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J571" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="5"/>
       <c r="B572" s="4"/>
       <c r="F572" s="10">
@@ -25901,8 +27106,11 @@
       <c r="H572" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J572" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="5"/>
       <c r="B573" s="4"/>
       <c r="F573" s="10">
@@ -25914,8 +27122,11 @@
       <c r="H573" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J573" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="5"/>
       <c r="B574" s="5">
         <v>2007</v>
@@ -25932,8 +27143,11 @@
       <c r="H574" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J574" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="5"/>
       <c r="B575" s="5">
         <v>2008</v>
@@ -25950,8 +27164,11 @@
       <c r="H575" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J575" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="F576" s="10">
@@ -25963,8 +27180,11 @@
       <c r="H576" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J576" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="F577" s="10">
@@ -25976,8 +27196,11 @@
       <c r="H577" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J577" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="5"/>
       <c r="B578" s="5">
         <v>2011</v>
@@ -25994,8 +27217,11 @@
       <c r="H578" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J578" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="E579" s="3" t="s">
@@ -26005,11 +27231,11 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="5"/>
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="22" t="s">
         <v>6110</v>
       </c>
@@ -26022,8 +27248,12 @@
         <f>SUM(H582:H603)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J581" s="20">
+        <f>SUM(J582:J603)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D582" s="12" t="s">
         <v>6097</v>
       </c>
@@ -26031,7 +27261,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="5"/>
       <c r="E583" s="3" t="s">
         <v>6170</v>
@@ -26040,7 +27270,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="5"/>
       <c r="B584" s="4">
         <v>1992</v>
@@ -26055,7 +27285,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="5"/>
       <c r="B585" s="4">
         <v>1993</v>
@@ -26070,7 +27300,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="5"/>
       <c r="B586" s="4">
         <v>1994</v>
@@ -26085,7 +27315,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="5"/>
       <c r="B587" s="4">
         <v>1995</v>
@@ -26100,7 +27330,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="5"/>
       <c r="B588" s="4">
         <v>1996</v>
@@ -26115,7 +27345,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="5"/>
       <c r="B589" s="5">
         <v>1997</v>
@@ -26132,8 +27362,11 @@
       <c r="H589" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J589" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="5"/>
       <c r="B590" s="4">
         <v>1998</v>
@@ -26145,14 +27378,14 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="5"/>
       <c r="B591" s="4"/>
       <c r="F591" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="5"/>
       <c r="B592" s="4">
         <v>2000</v>
@@ -26164,7 +27397,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="5"/>
       <c r="B593" s="5">
         <v>2001</v>
@@ -26181,22 +27414,25 @@
       <c r="H593" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J593" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="F594" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="F595" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="F596" s="10">
@@ -26208,8 +27444,11 @@
       <c r="H596" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J596" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="5"/>
       <c r="B597" s="5">
         <v>2005</v>
@@ -26226,8 +27465,11 @@
       <c r="H597" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J597" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="5"/>
       <c r="B598" s="5">
         <v>2006</v>
@@ -26244,8 +27486,11 @@
       <c r="H598" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J598" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="F599" s="10">
@@ -26257,8 +27502,11 @@
       <c r="H599" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J599" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="5"/>
       <c r="B600" s="4">
         <v>2008</v>
@@ -26275,8 +27523,11 @@
       <c r="H600" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J600" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="5"/>
       <c r="B601" s="4"/>
       <c r="F601" s="10">
@@ -26288,8 +27539,11 @@
       <c r="H601" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J601" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="5"/>
       <c r="B602" s="5">
         <v>2010</v>
@@ -26306,8 +27560,11 @@
       <c r="H602" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J602" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="5"/>
       <c r="B603" s="5">
         <v>2011</v>
@@ -26324,8 +27581,11 @@
       <c r="H603" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J603" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="E604" s="3" t="s">
@@ -26335,12 +27595,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="27" t="s">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A606" s="26" t="s">
         <v>6111</v>
       </c>
       <c r="B606" s="5"/>
@@ -26352,8 +27612,12 @@
         <f>SUM(H607:H628)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J606" s="20">
+        <f>SUM(J607:J628)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B607" s="5"/>
       <c r="D607" s="12" t="s">
         <v>6097</v>
@@ -26362,21 +27626,21 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="F608" s="4">
         <v>1991</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="F609" s="11">
         <v>1992</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B610" s="4">
         <v>1993</v>
       </c>
@@ -26387,7 +27651,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="5"/>
       <c r="B611" s="4">
         <v>1994</v>
@@ -26399,21 +27663,21 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="5"/>
       <c r="B612" s="4"/>
       <c r="F612" s="11">
         <v>1995</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="5"/>
       <c r="B613" s="4"/>
       <c r="F613" s="11">
         <v>1996</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="5"/>
       <c r="B614" s="4">
         <v>1997</v>
@@ -26425,28 +27689,28 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="5"/>
       <c r="B615" s="4"/>
       <c r="F615" s="11">
         <v>1998</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="5"/>
       <c r="B616" s="4"/>
       <c r="F616" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="5"/>
       <c r="B617" s="4"/>
       <c r="F617" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="5"/>
       <c r="B618" s="5">
         <v>2001</v>
@@ -26463,22 +27727,25 @@
       <c r="H618" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J618" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="F619" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="F620" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="F621" s="10">
@@ -26490,8 +27757,11 @@
       <c r="H621" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J621" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="F622" s="10">
@@ -26503,8 +27773,11 @@
       <c r="H622" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J622" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="5"/>
       <c r="B623" s="5">
         <v>2006</v>
@@ -26521,8 +27794,11 @@
       <c r="H623" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J623" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="F624" s="10">
@@ -26534,8 +27810,11 @@
       <c r="H624" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J624" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="5"/>
       <c r="B625" s="4">
         <v>2008</v>
@@ -26552,8 +27831,11 @@
       <c r="H625" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J625" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="5"/>
       <c r="B626" s="4"/>
       <c r="F626" s="10">
@@ -26565,8 +27847,11 @@
       <c r="H626" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J626" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="5"/>
       <c r="B627" s="5">
         <v>2010</v>
@@ -26583,8 +27868,11 @@
       <c r="H627" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J627" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="F628" s="10">
@@ -26596,19 +27884,22 @@
       <c r="H628" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J628" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="F629" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="22" t="s">
         <v>6112</v>
       </c>
@@ -26621,8 +27912,12 @@
         <f>SUM(H632:H653)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J631" s="20">
+        <f>SUM(J632:J653)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B632" s="4">
         <v>1990</v>
       </c>
@@ -26633,21 +27928,21 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="5"/>
       <c r="B633" s="4"/>
       <c r="F633" s="4">
         <v>1991</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="5"/>
       <c r="B634" s="4"/>
       <c r="F634" s="11">
         <v>1992</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="5"/>
       <c r="B635" s="4">
         <v>1993</v>
@@ -26659,7 +27954,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="5"/>
       <c r="B636" s="4">
         <v>1994</v>
@@ -26671,21 +27966,21 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="5"/>
       <c r="B637" s="4"/>
       <c r="F637" s="11">
         <v>1995</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="5"/>
       <c r="B638" s="4"/>
       <c r="F638" s="4">
         <v>1996</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
       <c r="B639" s="4">
         <v>1997</v>
@@ -26702,29 +27997,32 @@
       <c r="H639" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J639" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
       <c r="B640" s="4"/>
       <c r="F640" s="11">
         <v>1998</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
       <c r="B641" s="4"/>
       <c r="F641" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
       <c r="B642" s="4"/>
       <c r="F642" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="5"/>
       <c r="B643" s="5">
         <v>2001</v>
@@ -26741,22 +28039,25 @@
       <c r="H643" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J643" s="23" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="F644" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="F645" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="F646" s="10">
@@ -26768,8 +28069,11 @@
       <c r="H646" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J646" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="F647" s="10">
@@ -26781,8 +28085,11 @@
       <c r="H647" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J647" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
       <c r="B648" s="5">
         <v>2006</v>
@@ -26799,8 +28106,11 @@
       <c r="H648" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J648" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="F649" s="10">
@@ -26812,8 +28122,11 @@
       <c r="H649" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J649" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="F650" s="10">
@@ -26825,8 +28138,11 @@
       <c r="H650" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J650" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="F651" s="10">
@@ -26838,8 +28154,11 @@
       <c r="H651" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J651" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="5"/>
       <c r="B652" s="5">
         <v>2010</v>
@@ -26859,8 +28178,11 @@
       <c r="H652" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J652" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="F653" s="10">
@@ -26872,17 +28194,20 @@
       <c r="H653" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J653" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B654" s="5"/>
       <c r="F654" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B655" s="5"/>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="22" t="s">
         <v>6113</v>
       </c>
@@ -26895,45 +28220,49 @@
         <f>SUM(H657:H678)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J656" s="20">
+        <f>SUM(J657:J678)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F657" s="11">
         <v>1990</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
       <c r="F658" s="3">
         <v>1991</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="5"/>
       <c r="F659" s="11">
         <v>1992</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F660" s="11">
         <v>1993</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F661" s="11">
         <v>1994</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F662" s="11">
         <v>1995</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F663" s="11">
         <v>1996</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B664" s="5">
         <v>1997</v>
       </c>
@@ -26949,26 +28278,29 @@
       <c r="H664" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J664" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B665" s="5"/>
       <c r="F665" s="11">
         <v>1998</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B666" s="5"/>
       <c r="F666" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B667" s="5"/>
       <c r="F667" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B668" s="5"/>
       <c r="F668" s="10">
         <v>2001</v>
@@ -26979,20 +28311,23 @@
       <c r="H668" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J668" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B669" s="5"/>
       <c r="F669" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B670" s="5"/>
       <c r="F670" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B671" s="5">
         <v>2004</v>
       </c>
@@ -27008,8 +28343,11 @@
       <c r="H671" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J671" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B672" s="5">
         <v>2005</v>
       </c>
@@ -27025,8 +28363,11 @@
       <c r="H672" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="673" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J672" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B673" s="5">
         <v>2006</v>
       </c>
@@ -27042,8 +28383,11 @@
       <c r="H673" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="674" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J673" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B674" s="5"/>
       <c r="F674" s="10">
         <v>2007</v>
@@ -27054,8 +28398,11 @@
       <c r="H674" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="675" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J674" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B675" s="5"/>
       <c r="E675" s="3" t="s">
         <v>6201</v>
@@ -27064,7 +28411,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="676" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B676" s="5"/>
       <c r="F676" s="10">
         <v>2009</v>
@@ -27075,8 +28422,11 @@
       <c r="H676" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="677" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J676" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B677" s="5">
         <v>2010</v>
       </c>
@@ -27092,13 +28442,16 @@
       <c r="H677" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="678" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J677" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F678" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="679" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F679" s="11">
         <v>2012</v>
       </c>

--- a/logs/TrackingLandsat5ImageProcessing.xlsx
+++ b/logs/TrackingLandsat5ImageProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garim\Documents\GitHub_LocalRepository\aquaculture_patterns\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CDD12-89C2-47A7-9BD7-2FB98D5B2D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142DBC5-57BB-4A2F-B347-6E723748804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" xr2:uid="{A04548C0-05D6-4DBA-8655-AF15A25722A6}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="missingSatelliteData_Landsat8" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="6226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="6227">
   <si>
     <t>UniqueID</t>
   </si>
@@ -18738,7 +18737,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>x</t>
+    <t xml:space="preserve">Classified were missing. Now added. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classified was missing. Now added. </t>
   </si>
 </sst>
 </file>
@@ -18924,7 +18926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19148,12 +19150,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -19325,7 +19321,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -19393,19 +19389,16 @@
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19786,11 +19779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4480493-9A35-4457-B690-D465866EA848}">
-  <dimension ref="A1:J679"/>
+  <dimension ref="A1:K679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J541" sqref="J541"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J587" sqref="J587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19819,17 +19812,17 @@
       <c r="D1" s="1" t="s">
         <v>6095</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>6215</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="20" t="s">
         <v>6222</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>6223</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>6224</v>
       </c>
     </row>
@@ -22076,7 +22069,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="24" t="s">
         <v>6085</v>
       </c>
       <c r="G177" s="22">
@@ -22407,7 +22400,7 @@
       <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="24" t="s">
         <v>6090</v>
       </c>
       <c r="B202" s="5"/>
@@ -22421,7 +22414,7 @@
       </c>
       <c r="J202" s="20">
         <f>SUM(J203:J224)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -22434,6 +22427,9 @@
       <c r="H203" s="17">
         <v>1</v>
       </c>
+      <c r="J203" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F204" s="6">
@@ -22445,6 +22441,9 @@
       <c r="H204" s="17">
         <v>1</v>
       </c>
+      <c r="J204" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F205" s="6">
@@ -22456,6 +22455,9 @@
       <c r="H205" s="17">
         <v>1</v>
       </c>
+      <c r="J205" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F206" s="6">
@@ -22467,6 +22469,9 @@
       <c r="H206" s="17">
         <v>1</v>
       </c>
+      <c r="J206" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F207" s="6">
@@ -22478,6 +22483,9 @@
       <c r="H207" s="17">
         <v>1</v>
       </c>
+      <c r="J207" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F208" s="6">
@@ -22489,8 +22497,11 @@
       <c r="H208" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J208" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F209" s="6">
         <v>1996</v>
       </c>
@@ -22500,8 +22511,11 @@
       <c r="H209" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J209" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="5">
         <v>1997</v>
       </c>
@@ -22517,8 +22531,11 @@
       <c r="H210" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J210" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="4">
         <v>1998</v>
       </c>
@@ -22529,13 +22546,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="F212" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="4">
         <v>2000</v>
       </c>
@@ -22546,7 +22563,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="F214" s="6">
         <v>2001</v>
@@ -22557,20 +22574,23 @@
       <c r="H214" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J214" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="F215" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="F216" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="F217" s="6">
         <v>2004</v>
@@ -22581,8 +22601,11 @@
       <c r="H217" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J217" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="F218" s="6">
         <v>2005</v>
@@ -22593,8 +22616,11 @@
       <c r="H218" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J218" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="F219" s="6">
         <v>2006</v>
@@ -22605,8 +22631,11 @@
       <c r="H219" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J219" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="F220" s="6">
         <v>2007</v>
@@ -22617,8 +22646,11 @@
       <c r="H220" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J220" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="F221" s="6">
         <v>2008</v>
@@ -22629,8 +22661,11 @@
       <c r="H221" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J221" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="F222" s="6">
         <v>2009</v>
@@ -22641,8 +22676,11 @@
       <c r="H222" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J222" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="F223" s="6">
         <v>2010</v>
@@ -22653,8 +22691,11 @@
       <c r="H223" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J223" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="F224" s="6">
         <v>2011</v>
@@ -22663,6 +22704,9 @@
         <v>1</v>
       </c>
       <c r="H224" s="17">
+        <v>1</v>
+      </c>
+      <c r="J224" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22690,7 +22734,7 @@
       </c>
       <c r="J227" s="20">
         <f>SUM(J228:J249)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -22715,6 +22759,9 @@
       <c r="H229" s="17">
         <v>1</v>
       </c>
+      <c r="J229" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
@@ -22727,6 +22774,9 @@
       <c r="H230" s="17">
         <v>1</v>
       </c>
+      <c r="J230" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
@@ -22739,6 +22789,9 @@
       <c r="H231" s="17">
         <v>1</v>
       </c>
+      <c r="J231" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
@@ -22751,6 +22804,9 @@
       <c r="H232" s="17">
         <v>1</v>
       </c>
+      <c r="J232" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
@@ -22763,6 +22819,9 @@
       <c r="H233" s="17">
         <v>1</v>
       </c>
+      <c r="J233" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
@@ -22775,6 +22834,9 @@
       <c r="H234" s="17">
         <v>1</v>
       </c>
+      <c r="J234" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B235" s="5">
@@ -22790,6 +22852,9 @@
         <v>1</v>
       </c>
       <c r="H235" s="17">
+        <v>1</v>
+      </c>
+      <c r="J235" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22837,6 +22902,9 @@
       <c r="H239" s="17">
         <v>1</v>
       </c>
+      <c r="J239" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
@@ -22866,6 +22934,9 @@
       <c r="H242" s="17">
         <v>1</v>
       </c>
+      <c r="J242" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
@@ -22878,6 +22949,9 @@
       <c r="H243" s="17">
         <v>1</v>
       </c>
+      <c r="J243" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
@@ -22890,6 +22964,9 @@
       <c r="H244" s="17">
         <v>1</v>
       </c>
+      <c r="J244" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
@@ -22902,6 +22979,9 @@
       <c r="H245" s="17">
         <v>1</v>
       </c>
+      <c r="J245" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
@@ -22914,6 +22994,9 @@
       <c r="H246" s="17">
         <v>1</v>
       </c>
+      <c r="J246" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
@@ -22926,6 +23009,9 @@
       <c r="H247" s="17">
         <v>1</v>
       </c>
+      <c r="J247" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
@@ -22938,6 +23024,9 @@
       <c r="H248" s="17">
         <v>1</v>
       </c>
+      <c r="J248" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
@@ -22950,6 +23039,9 @@
       <c r="H249" s="17">
         <v>1</v>
       </c>
+      <c r="J249" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
@@ -22975,7 +23067,7 @@
       </c>
       <c r="J252" s="20">
         <f>SUM(J253:J274)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -23003,6 +23095,9 @@
         <v>1</v>
       </c>
       <c r="H254" s="17">
+        <v>1</v>
+      </c>
+      <c r="J254" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23017,6 +23112,9 @@
       <c r="H255" s="17">
         <v>1</v>
       </c>
+      <c r="J255" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
@@ -23029,8 +23127,11 @@
       <c r="H256" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J256" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B257" s="5">
         <v>1994</v>
       </c>
@@ -23046,8 +23147,11 @@
       <c r="H257" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J257" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
       <c r="F258" s="6">
         <v>1995</v>
@@ -23058,8 +23162,11 @@
       <c r="H258" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J258" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
       <c r="F259" s="6">
         <v>1996</v>
@@ -23070,8 +23177,11 @@
       <c r="H259" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J259" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
       <c r="F260" s="6">
         <v>1997</v>
@@ -23082,8 +23192,11 @@
       <c r="H260" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J260" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B261" s="4">
         <v>1998</v>
       </c>
@@ -23094,13 +23207,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
       <c r="F262" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
       <c r="F263" s="6">
         <v>2000</v>
@@ -23111,8 +23224,11 @@
       <c r="H263" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J263" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B264" s="5">
         <v>2001</v>
       </c>
@@ -23123,19 +23239,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
       <c r="F265" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
       <c r="F266" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="F267" s="6">
         <v>2004</v>
@@ -23146,8 +23262,11 @@
       <c r="H267" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J267" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
       <c r="F268" s="6">
         <v>2005</v>
@@ -23158,8 +23277,11 @@
       <c r="H268" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J268" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="F269" s="6">
         <v>2006</v>
@@ -23170,8 +23292,11 @@
       <c r="H269" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J269" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="F270" s="6">
         <v>2007</v>
@@ -23182,8 +23307,11 @@
       <c r="H270" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J270" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B271" s="5">
         <v>2008</v>
       </c>
@@ -23194,7 +23322,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="F272" s="6">
         <v>2009</v>
@@ -23205,6 +23333,9 @@
       <c r="H272" s="17">
         <v>1</v>
       </c>
+      <c r="J272" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B273" s="5">
@@ -23220,6 +23351,9 @@
         <v>1</v>
       </c>
       <c r="H273" s="17">
+        <v>1</v>
+      </c>
+      <c r="J273" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23258,7 +23392,7 @@
       </c>
       <c r="J277" s="20">
         <f>SUM(J278:J299)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -23283,6 +23417,9 @@
       <c r="H279" s="17">
         <v>1</v>
       </c>
+      <c r="J279" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
@@ -23295,6 +23432,9 @@
       <c r="H280" s="17">
         <v>1</v>
       </c>
+      <c r="J280" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
@@ -23307,6 +23447,9 @@
       <c r="H281" s="17">
         <v>1</v>
       </c>
+      <c r="J281" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B282" s="3">
@@ -23327,6 +23470,9 @@
       <c r="H282" s="17">
         <v>1</v>
       </c>
+      <c r="J282" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F283" s="14">
@@ -23338,6 +23484,9 @@
       <c r="H283" s="17">
         <v>1</v>
       </c>
+      <c r="J283" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F284" s="14">
@@ -23349,6 +23498,9 @@
       <c r="H284" s="17">
         <v>1</v>
       </c>
+      <c r="J284" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F285" s="14">
@@ -23358,6 +23510,9 @@
         <v>1</v>
       </c>
       <c r="H285" s="17">
+        <v>1</v>
+      </c>
+      <c r="J285" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23397,6 +23552,9 @@
       <c r="H288" s="17">
         <v>1</v>
       </c>
+      <c r="J288" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B289" s="4">
@@ -23432,6 +23590,9 @@
       <c r="H292" s="17">
         <v>1</v>
       </c>
+      <c r="J292" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
@@ -23444,6 +23605,9 @@
       <c r="H293" s="17">
         <v>1</v>
       </c>
+      <c r="J293" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
@@ -23456,6 +23620,9 @@
       <c r="H294" s="17">
         <v>1</v>
       </c>
+      <c r="J294" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
@@ -23468,6 +23635,9 @@
       <c r="H295" s="17">
         <v>1</v>
       </c>
+      <c r="J295" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
@@ -23480,6 +23650,9 @@
       <c r="H296" s="17">
         <v>1</v>
       </c>
+      <c r="J296" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
@@ -23492,6 +23665,9 @@
       <c r="H297" s="17">
         <v>1</v>
       </c>
+      <c r="J297" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
@@ -23504,6 +23680,9 @@
       <c r="H298" s="17">
         <v>1</v>
       </c>
+      <c r="J298" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B299" s="3">
@@ -23525,21 +23704,21 @@
       <c r="B302" s="5"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="23" t="s">
         <v>6100</v>
       </c>
       <c r="B303" s="5"/>
-      <c r="G303" s="24">
+      <c r="G303" s="23">
         <f>SUM(G304:G325)</f>
         <v>14</v>
       </c>
-      <c r="H303" s="24">
+      <c r="H303" s="23">
         <f>SUM(H304:H325)</f>
         <v>14</v>
       </c>
       <c r="J303" s="20">
         <f>SUM(J304:J325)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -23553,7 +23732,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B305" s="5">
         <v>1991</v>
       </c>
@@ -23569,8 +23748,11 @@
       <c r="H305" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J305" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
       <c r="F306" s="6">
         <v>1992</v>
@@ -23581,8 +23763,11 @@
       <c r="H306" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J306" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="F307" s="6">
         <v>1993</v>
@@ -23593,8 +23778,11 @@
       <c r="H307" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J307" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B308" s="4">
         <v>1994</v>
       </c>
@@ -23605,7 +23793,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
       <c r="F309" s="6">
         <v>1995</v>
@@ -23616,8 +23804,11 @@
       <c r="H309" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J309" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B310" s="5">
         <v>1996</v>
       </c>
@@ -23633,8 +23824,11 @@
       <c r="H310" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J310" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="F311" s="6">
         <v>1997</v>
@@ -23645,8 +23839,11 @@
       <c r="H311" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J311" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B312" s="4">
         <v>1998</v>
       </c>
@@ -23657,13 +23854,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
       <c r="F313" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B314" s="4">
         <v>2000</v>
       </c>
@@ -23674,7 +23871,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B315" s="4">
         <v>2001</v>
       </c>
@@ -23685,19 +23882,19 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
       <c r="F316" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
       <c r="F317" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
       <c r="F318" s="6">
         <v>2004</v>
@@ -23708,8 +23905,11 @@
       <c r="H318" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J318" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
       <c r="F319" s="6">
         <v>2005</v>
@@ -23720,8 +23920,11 @@
       <c r="H319" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J319" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
       <c r="F320" s="6">
         <v>2006</v>
@@ -23730,6 +23933,9 @@
         <v>1</v>
       </c>
       <c r="H320" s="17">
+        <v>1</v>
+      </c>
+      <c r="J320" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23744,6 +23950,9 @@
       <c r="H321" s="17">
         <v>1</v>
       </c>
+      <c r="J321" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
@@ -23756,6 +23965,9 @@
       <c r="H322" s="17">
         <v>1</v>
       </c>
+      <c r="J322" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
@@ -23768,6 +23980,9 @@
       <c r="H323" s="17">
         <v>1</v>
       </c>
+      <c r="J323" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
@@ -23780,6 +23995,9 @@
       <c r="H324" s="17">
         <v>1</v>
       </c>
+      <c r="J324" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
@@ -23792,6 +24010,9 @@
       <c r="H325" s="17">
         <v>1</v>
       </c>
+      <c r="J325" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B326" s="5">
@@ -23811,21 +24032,21 @@
       <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="24" t="s">
+      <c r="A329" s="23" t="s">
         <v>6101</v>
       </c>
       <c r="B329" s="5"/>
-      <c r="G329" s="24">
+      <c r="G329" s="23">
         <f>SUM(G330:G351)</f>
         <v>17</v>
       </c>
-      <c r="H329" s="24">
+      <c r="H329" s="23">
         <f>SUM(H330:H351)</f>
         <v>17</v>
       </c>
       <c r="J329" s="20">
         <f>SUM(J330:J351)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -23845,6 +24066,9 @@
         <v>1</v>
       </c>
       <c r="H330" s="17">
+        <v>1</v>
+      </c>
+      <c r="J330" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23859,6 +24083,9 @@
       <c r="H331" s="17">
         <v>1</v>
       </c>
+      <c r="J331" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
@@ -23871,6 +24098,9 @@
       <c r="H332" s="17">
         <v>1</v>
       </c>
+      <c r="J332" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
@@ -23883,6 +24113,9 @@
       <c r="H333" s="17">
         <v>1</v>
       </c>
+      <c r="J333" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
@@ -23895,6 +24128,9 @@
       <c r="H334" s="17">
         <v>1</v>
       </c>
+      <c r="J334" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
@@ -23907,6 +24143,9 @@
       <c r="H335" s="17">
         <v>1</v>
       </c>
+      <c r="J335" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B336" s="5">
@@ -23924,8 +24163,11 @@
       <c r="H336" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J336" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
       <c r="F337" s="6">
         <v>1997</v>
@@ -23936,8 +24178,11 @@
       <c r="H337" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J337" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B338" s="4">
         <v>1998</v>
       </c>
@@ -23948,13 +24193,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
       <c r="F339" s="7">
         <v>1999</v>
       </c>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B340" s="4">
         <v>2000</v>
       </c>
@@ -23965,7 +24210,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B341" s="5">
         <v>2001</v>
       </c>
@@ -23984,20 +24229,23 @@
       <c r="H341" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J341" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
       <c r="F342" s="7">
         <v>2002</v>
       </c>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
       <c r="F343" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
       <c r="F344" s="6">
         <v>2004</v>
@@ -24008,8 +24256,11 @@
       <c r="H344" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J344" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="F345" s="6">
         <v>2005</v>
@@ -24020,8 +24271,11 @@
       <c r="H345" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J345" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B346" s="5">
         <v>2006</v>
       </c>
@@ -24037,8 +24291,11 @@
       <c r="H346" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J346" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="F347" s="6">
         <v>2007</v>
@@ -24049,8 +24306,11 @@
       <c r="H347" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J347" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B348" s="5">
         <v>2008</v>
       </c>
@@ -24066,8 +24326,11 @@
       <c r="H348" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J348" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B349" s="5">
         <v>2009</v>
       </c>
@@ -24083,8 +24346,11 @@
       <c r="H349" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J349" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="F350" s="6">
         <v>2010</v>
@@ -24095,8 +24361,11 @@
       <c r="H350" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J350" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
       <c r="F351" s="6">
         <v>2011</v>
@@ -24107,8 +24376,11 @@
       <c r="H351" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J351" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="F352" s="7">
         <v>2012</v>
@@ -24118,21 +24390,21 @@
       <c r="B353" s="5"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="24" t="s">
+      <c r="A354" s="23" t="s">
         <v>6102</v>
       </c>
       <c r="B354" s="5"/>
-      <c r="G354" s="24">
+      <c r="G354" s="23">
         <f>SUM(G355:G376)</f>
         <v>16</v>
       </c>
-      <c r="H354" s="24">
+      <c r="H354" s="23">
         <f>SUM(H355:H376)</f>
         <v>16</v>
       </c>
       <c r="J354" s="20">
         <f>SUM(J355:J376)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -24154,6 +24426,9 @@
       <c r="H355" s="17">
         <v>1</v>
       </c>
+      <c r="J355" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B356" s="5">
@@ -24169,6 +24444,9 @@
         <v>1</v>
       </c>
       <c r="H356" s="17">
+        <v>1</v>
+      </c>
+      <c r="J356" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24183,6 +24461,9 @@
       <c r="H357" s="17">
         <v>1</v>
       </c>
+      <c r="J357" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
@@ -24195,6 +24476,9 @@
       <c r="H358" s="17">
         <v>1</v>
       </c>
+      <c r="J358" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
@@ -24207,6 +24491,9 @@
       <c r="H359" s="17">
         <v>1</v>
       </c>
+      <c r="J359" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
@@ -24219,6 +24506,9 @@
       <c r="H360" s="17">
         <v>1</v>
       </c>
+      <c r="J360" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
@@ -24231,6 +24521,9 @@
       <c r="H361" s="17">
         <v>1</v>
       </c>
+      <c r="J361" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
@@ -24243,6 +24536,9 @@
       <c r="H362" s="17">
         <v>1</v>
       </c>
+      <c r="J362" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B363" s="4">
@@ -24306,6 +24602,9 @@
       <c r="H369" s="17">
         <v>1</v>
       </c>
+      <c r="J369" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B370" s="4"/>
@@ -24318,6 +24617,9 @@
       <c r="H370" s="17">
         <v>1</v>
       </c>
+      <c r="J370" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B371" s="5">
@@ -24333,6 +24635,9 @@
         <v>1</v>
       </c>
       <c r="H371" s="17">
+        <v>1</v>
+      </c>
+      <c r="J371" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24347,6 +24652,9 @@
       <c r="H372" s="17">
         <v>1</v>
       </c>
+      <c r="J372" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B373" s="5">
@@ -24362,6 +24670,9 @@
         <v>1</v>
       </c>
       <c r="H373" s="17">
+        <v>1</v>
+      </c>
+      <c r="J373" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24376,6 +24687,9 @@
       <c r="H374" s="17">
         <v>1</v>
       </c>
+      <c r="J374" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B375" s="5">
@@ -24394,6 +24708,9 @@
         <v>1</v>
       </c>
       <c r="H375" s="17">
+        <v>1</v>
+      </c>
+      <c r="J375" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24408,6 +24725,9 @@
       <c r="H376" s="17">
         <v>1</v>
       </c>
+      <c r="J376" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B377" s="5"/>
@@ -24431,7 +24751,7 @@
       <c r="J380" s="18"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="25" t="s">
+      <c r="A381" s="24" t="s">
         <v>6103</v>
       </c>
       <c r="B381" s="5"/>
@@ -24785,7 +25105,7 @@
     </row>
     <row r="405" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="406" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="25" t="s">
+      <c r="A406" s="24" t="s">
         <v>6104</v>
       </c>
       <c r="G406" s="22">
@@ -25465,7 +25785,7 @@
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A456" s="25" t="s">
+      <c r="A456" s="24" t="s">
         <v>6106</v>
       </c>
       <c r="G456" s="22">
@@ -25814,7 +26134,7 @@
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A481" s="25" t="s">
+      <c r="A481" s="24" t="s">
         <v>6074</v>
       </c>
       <c r="G481" s="22">
@@ -26489,19 +26809,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="F529" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A531" s="26" t="s">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531" s="25" t="s">
         <v>6108</v>
       </c>
       <c r="B531" s="5"/>
@@ -26515,10 +26835,10 @@
       </c>
       <c r="J531" s="20">
         <f>SUM(J532:J553)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B532" s="4">
         <v>1990</v>
       </c>
@@ -26535,7 +26855,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="5"/>
       <c r="B533" s="4">
         <v>1991</v>
@@ -26553,7 +26873,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="5"/>
       <c r="B534" s="4">
         <v>1992</v>
@@ -26570,11 +26890,14 @@
       <c r="H534" s="17">
         <v>1</v>
       </c>
-      <c r="J534" s="23" t="s">
+      <c r="J534" s="16">
+        <v>1</v>
+      </c>
+      <c r="K534" s="3" t="s">
         <v>6225</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="4">
         <v>1993</v>
@@ -26592,7 +26915,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="5"/>
       <c r="B536" s="4">
         <v>1994</v>
@@ -26610,7 +26933,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="5"/>
       <c r="B537" s="5">
         <v>1995</v>
@@ -26630,11 +26953,14 @@
       <c r="H537" s="17">
         <v>1</v>
       </c>
-      <c r="J537" s="23" t="s">
+      <c r="J537" s="16">
+        <v>1</v>
+      </c>
+      <c r="K537" s="3" t="s">
         <v>6225</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="F538" s="10">
@@ -26646,11 +26972,14 @@
       <c r="H538" s="17">
         <v>1</v>
       </c>
-      <c r="J538" s="23" t="s">
+      <c r="J538" s="16">
+        <v>1</v>
+      </c>
+      <c r="K538" s="3" t="s">
         <v>6225</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="F539" s="10">
@@ -26666,7 +26995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="5"/>
       <c r="B540" s="5">
         <v>1998</v>
@@ -26681,14 +27010,14 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="F541" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="5"/>
       <c r="B542" s="4">
         <v>2000</v>
@@ -26703,7 +27032,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="5"/>
       <c r="B543" s="4">
         <v>2001</v>
@@ -26718,7 +27047,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
       <c r="B544" s="4"/>
       <c r="F544" s="11">
@@ -26880,7 +27209,7 @@
       <c r="B555" s="5"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="26" t="s">
+      <c r="A556" s="25" t="s">
         <v>6109</v>
       </c>
       <c r="B556" s="5"/>
@@ -27600,7 +27929,7 @@
       <c r="B605" s="5"/>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="26" t="s">
+      <c r="A606" s="25" t="s">
         <v>6111</v>
       </c>
       <c r="B606" s="5"/>
@@ -27914,7 +28243,7 @@
       </c>
       <c r="J631" s="20">
         <f>SUM(J632:J653)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
@@ -28008,21 +28337,21 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
       <c r="B641" s="4"/>
       <c r="F641" s="11">
         <v>1999</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
       <c r="B642" s="4"/>
       <c r="F642" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="5"/>
       <c r="B643" s="5">
         <v>2001</v>
@@ -28039,25 +28368,28 @@
       <c r="H643" s="17">
         <v>1</v>
       </c>
-      <c r="J643" s="23" t="s">
-        <v>6225</v>
-      </c>
-    </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J643" s="16">
+        <v>1</v>
+      </c>
+      <c r="K643" s="3" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="F644" s="11">
         <v>2002</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="F645" s="11">
         <v>2003</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="F646" s="10">
@@ -28073,7 +28405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="F647" s="10">
@@ -28089,7 +28421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
       <c r="B648" s="5">
         <v>2006</v>
@@ -28110,7 +28442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="F649" s="10">
@@ -28126,7 +28458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="F650" s="10">
@@ -28142,7 +28474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="F651" s="10">
@@ -28158,7 +28490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="5"/>
       <c r="B652" s="5">
         <v>2010</v>
@@ -28182,7 +28514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="F653" s="10">
@@ -28198,16 +28530,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B654" s="5"/>
       <c r="F654" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B655" s="5"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="22" t="s">
         <v>6113</v>
       </c>
